--- a/data/trans_camb/P5_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,26</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 13,03</t>
+          <t>-14,68; 13,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 6,72</t>
+          <t>-10,54; 11,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 6,93</t>
+          <t>-9,53; 8,68</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 49,83</t>
+          <t>-35,41; 53,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 24,96</t>
+          <t>-34,06; 63,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 27,03</t>
+          <t>-27,96; 36,59</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 5,93</t>
+          <t>-6,9; 8,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 2,76</t>
+          <t>-6,81; 6,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,3</t>
+          <t>-5,07; 5,06</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 25,86</t>
+          <t>-23,15; 38,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 11,77</t>
+          <t>-22,7; 27,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 13,32</t>
+          <t>-17,55; 21,52</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,91</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 6,62</t>
+          <t>-5,04; 9,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 7,07</t>
+          <t>-5,86; 7,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 5,27</t>
+          <t>-3,47; 6,71</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>10,2%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 38,09</t>
+          <t>-25,83; 77,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 34,62</t>
+          <t>-23,34; 46,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 25,54</t>
+          <t>-16,74; 42,03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,61</t>
+          <t>-5,57; 5,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,53</t>
+          <t>-6,22; 4,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,25</t>
+          <t>-3,83; 3,36</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>-1,3%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 19,97</t>
+          <t>-20,57; 22,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 10,32</t>
+          <t>-20,14; 15,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,02</t>
+          <t>-13,58; 12,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 3,71</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 2,32</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 2,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 15,78</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-14,0; 9,26</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-10,04; 8,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.443411527903249</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.7062536620268789</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.841626689414543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 13,94</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; 11,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 8,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.10096456792508</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.881942887763225</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.593879945625501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,9%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.92358733294963</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.8481441655532</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.948983956076646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-35,41; 53,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-34,06; 63,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-27,96; 36,59</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.04316192356212101</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.0277281609930068</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02885360971906333</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2936836716016544</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3343229199572594</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2504532694698475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,9; 8,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 6,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 5,06</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.633048873608723</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6750774077825313</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.4170953299168118</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,35%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.309070515263311</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5214717401979818</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3626259999981507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-23,15; 38,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-22,7; 27,9</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-17,55; 21,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.158383464012037</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.118819562822308</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.969747353664996</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.345024360499787</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.894812636096283</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.01677407659222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 9,85</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; 7,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 6,71</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.05002638199578688</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01988503381690908</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01384211246513124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>16,13%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,85%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,2%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.208159151872749</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2425753447010559</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1729015926170853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-25,83; 77,73</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-23,34; 46,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; 42,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.4214756759858946</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2571588140853548</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2194090299993999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.614275614191808</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.113064121352276</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.239978226469061</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,57; 5,23</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,22; 4,11</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 3,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-4.962881057052133</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.266973548996535</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.297588333477899</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,34%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,07%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,3%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.24897970128042</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.763270203554654</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.21182168861432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-20,57; 22,05</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-20,14; 15,11</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; 12,96</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.1603848805846091</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.1013342674954635</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.1194563998813139</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2476113370710041</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2139060533551737</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1496811628440554</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 3,71</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 2,32</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 2,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.8647444233572733</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.5120360614512962</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.4408920281522511</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-2,67%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.535063799230316</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6347311549621149</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.06288202181398</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-11,72; 15,78</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-14,0; 9,26</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; 8,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.706048470387112</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.440318090686821</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.307478919539271</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.408832868943031</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.489982178185788</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.356190356606752</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.06388009770589538</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.02622839931869939</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.044065485305983</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1376854105900941</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1307926620465748</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.09195270039081298</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.3102397547622915</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.251100807815184</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1930234365552083</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
